--- a/GroceryApplication/src/test/resources/GroceryTest.xlsx
+++ b/GroceryApplication/src/test/resources/GroceryTest.xlsx
@@ -3,9 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29303"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1EBC0D93-BA74-4D84-98DB-3145A160FA87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/059ded308c54dea9/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BD0CCAA7-A5EE-4AFB-9BE4-D6FAED5D04E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="1" r:id="rId1"/>
@@ -31,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
   <si>
     <t>admin</t>
   </si>
@@ -43,6 +48,12 @@
   </si>
   <si>
     <t>username</t>
+  </si>
+  <si>
+    <t>devikatest1</t>
+  </si>
+  <si>
+    <t>devikatest</t>
   </si>
 </sst>
 </file>
@@ -61,7 +72,6 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -86,7 +96,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -421,19 +431,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B4"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.1"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" ht="14.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -441,7 +451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" ht="14.45">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -449,7 +459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" ht="14.45">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -457,12 +467,20 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" ht="14.45">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/GroceryApplication/src/test/resources/GroceryTest.xlsx
+++ b/GroceryApplication/src/test/resources/GroceryTest.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29303"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29311"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/059ded308c54dea9/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BD0CCAA7-A5EE-4AFB-9BE4-D6FAED5D04E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5DACE4CA-E9FC-4E9D-AC5A-FFF4BEC1DCB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="7">
   <si>
     <t>admin</t>
   </si>
@@ -54,6 +54,9 @@
   </si>
   <si>
     <t>devikatest</t>
+  </si>
+  <si>
+    <t>heavy rain fall</t>
   </si>
 </sst>
 </file>
@@ -431,16 +434,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.1"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="14.45">
@@ -483,6 +484,11 @@
         <v>5</v>
       </c>
     </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/GroceryApplication/src/test/resources/GroceryTest.xlsx
+++ b/GroceryApplication/src/test/resources/GroceryTest.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/059ded308c54dea9/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Devika Vysakh\git\GroceryApplication\GroceryApplication\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5DACE4CA-E9FC-4E9D-AC5A-FFF4BEC1DCB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{993251A0-214A-40B7-B68B-2D29F5516184}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="1" r:id="rId1"/>
+    <sheet name="AdminPage" sheetId="2" r:id="rId2"/>
+    <sheet name="NewsPage" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -434,17 +436,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.1"/>
+  <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.58203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="10.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="14.45">
+    <row r="1" spans="1:2" ht="14.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -452,7 +456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="14.45">
+    <row r="2" spans="1:2" ht="14.5">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -460,7 +464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="14.45">
+    <row r="3" spans="1:2" ht="14.5">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -468,7 +472,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="14.45">
+    <row r="4" spans="1:2" ht="14.5">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -476,16 +480,47 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1491D70-1A06-4D09-86DB-3CC4F9E35276}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5F97538-A83B-439E-9AEE-263844514472}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="14.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
         <v>6</v>
       </c>
     </row>
